--- a/src/main/java/testing/excel/hw6_result.xlsx
+++ b/src/main/java/testing/excel/hw6_result.xlsx
@@ -126,10 +126,10 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.5</v>
+        <v>-1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.5</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="3">
@@ -140,10 +140,10 @@
         <v>2.0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.5</v>
+        <v>-1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.5</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="4">
@@ -154,10 +154,10 @@
         <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.5</v>
+        <v>-1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.5</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="5">
@@ -168,10 +168,10 @@
         <v>5.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.5</v>
+        <v>-1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.5</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="6">
@@ -182,10 +182,10 @@
         <v>8.0</v>
       </c>
       <c r="D6" t="n">
-        <v>23.5</v>
+        <v>-1.0</v>
       </c>
       <c r="E6" t="n">
-        <v>23.5</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="7">
@@ -196,10 +196,10 @@
         <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>72775.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>72775.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="8">
@@ -210,10 +210,10 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>72775.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>72775.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="9">
@@ -224,10 +224,10 @@
         <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>72775.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E9" t="n">
-        <v>72775.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="10">
@@ -238,10 +238,10 @@
         <v>5.0</v>
       </c>
       <c r="D10" t="n">
-        <v>72775.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E10" t="n">
-        <v>72775.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="11">
@@ -252,10 +252,10 @@
         <v>8.0</v>
       </c>
       <c r="D11" t="n">
-        <v>75025.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E11" t="n">
-        <v>75025.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="12">
@@ -266,10 +266,10 @@
         <v>-3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>27.97</v>
+        <v>-1.0</v>
       </c>
       <c r="E12" t="n">
-        <v>27.97</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="13">
@@ -280,10 +280,10 @@
         <v>-3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>36.82</v>
+        <v>-1.0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.82</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="14">
@@ -294,10 +294,10 @@
         <v>-3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>47.05</v>
+        <v>-1.0</v>
       </c>
       <c r="E14" t="n">
-        <v>47.05</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="15">
@@ -308,10 +308,10 @@
         <v>-3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>54.25</v>
+        <v>-1.0</v>
       </c>
       <c r="E15" t="n">
-        <v>54.25</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="16">
@@ -322,10 +322,10 @@
         <v>-3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>97.75</v>
+        <v>-1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>97.75</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="17">
@@ -336,10 +336,10 @@
         <v>12.0</v>
       </c>
       <c r="D17" t="n">
-        <v>28.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>28.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="18">
@@ -350,10 +350,10 @@
         <v>14.0</v>
       </c>
       <c r="D18" t="n">
-        <v>37.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>37.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="19">
@@ -364,10 +364,10 @@
         <v>15.0</v>
       </c>
       <c r="D19" t="n">
-        <v>47.5</v>
+        <v>-1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>47.5</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="20">
@@ -378,10 +378,10 @@
         <v>12.0</v>
       </c>
       <c r="D20" t="n">
-        <v>55.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>55.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="21">
@@ -392,10 +392,10 @@
         <v>12.0</v>
       </c>
       <c r="D21" t="n">
-        <v>100.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>100.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="22">

--- a/src/main/java/testing/excel/hw6_result.xlsx
+++ b/src/main/java/testing/excel/hw6_result.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -120,352 +120,352 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.0</v>
+        <v>29.455</v>
       </c>
       <c r="E2" t="n">
-        <v>55.0</v>
+        <v>29.455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="n">
-        <v>54.25</v>
+        <v>29.5</v>
       </c>
       <c r="E3" t="n">
-        <v>54.25</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.25</v>
+        <v>29.5</v>
       </c>
       <c r="E4" t="n">
-        <v>54.25</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n">
-        <v>55.0</v>
+        <v>29.5</v>
       </c>
       <c r="E5" t="n">
-        <v>55.0</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="D6" t="n">
-        <v>55.0</v>
+        <v>29.5</v>
       </c>
       <c r="E6" t="n">
-        <v>55.0</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B7" t="n">
         <v>0.0</v>
       </c>
-      <c r="B7" t="n">
-        <v>4.0</v>
-      </c>
       <c r="D7" t="n">
-        <v>25.0</v>
+        <v>34.89925</v>
       </c>
       <c r="E7" t="n">
-        <v>25.0</v>
+        <v>34.89925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0</v>
+        <v>37.411</v>
       </c>
       <c r="E8" t="n">
-        <v>25.0</v>
+        <v>37.411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>25.0</v>
+        <v>38.8</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0</v>
+        <v>109.0</v>
       </c>
       <c r="B10" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D10" t="n">
-        <v>25.0</v>
+        <v>41.349999999999994</v>
       </c>
       <c r="E10" t="n">
-        <v>25.0</v>
+        <v>41.349999999999994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="D11" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="E11" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20.0</v>
+        <v>130.0</v>
       </c>
       <c r="B12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>28.0</v>
+        <v>44.11</v>
       </c>
       <c r="E12" t="n">
-        <v>28.0</v>
+        <v>44.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20.0</v>
+        <v>148.0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.97</v>
+        <v>46.756</v>
       </c>
       <c r="E13" t="n">
-        <v>27.97</v>
+        <v>46.756</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20.0</v>
+        <v>175.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>27.97</v>
+        <v>50.724999999999994</v>
       </c>
       <c r="E14" t="n">
-        <v>27.97</v>
+        <v>50.724999999999994</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20.0</v>
+        <v>179.0</v>
       </c>
       <c r="B15" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15" t="n">
-        <v>28.0</v>
+        <v>51.849999999999994</v>
       </c>
       <c r="E15" t="n">
-        <v>28.0</v>
+        <v>51.849999999999994</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20.0</v>
+        <v>128.0</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D16" t="n">
-        <v>28.0</v>
+        <v>44.2</v>
       </c>
       <c r="E16" t="n">
-        <v>28.0</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>44640.0</v>
+        <v>203.0</v>
       </c>
       <c r="B17" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>6520.119999999999</v>
+        <v>54.68875</v>
       </c>
       <c r="E17" t="n">
-        <v>6520.119999999999</v>
+        <v>54.68875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>44640.0</v>
+        <v>202.0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18" t="n">
-        <v>6520.119999999999</v>
+        <v>54.5425</v>
       </c>
       <c r="E18" t="n">
-        <v>6520.119999999999</v>
+        <v>54.5425</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>44640.0</v>
+        <v>221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19" t="n">
-        <v>6520.119999999999</v>
+        <v>57.32125</v>
       </c>
       <c r="E19" t="n">
-        <v>6520.119999999999</v>
+        <v>57.32125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>44640.0</v>
+        <v>243.0</v>
       </c>
       <c r="B20" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>6721.0</v>
+        <v>61.449999999999996</v>
       </c>
       <c r="E20" t="n">
-        <v>6721.0</v>
+        <v>61.449999999999996</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44640.0</v>
+        <v>300.0</v>
       </c>
       <c r="B21" t="n">
         <v>10.0</v>
       </c>
       <c r="D21" t="n">
-        <v>6721.0</v>
+        <v>70.0</v>
       </c>
       <c r="E21" t="n">
-        <v>6721.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>44000.0</v>
+        <v>549.0</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D22" t="n">
-        <v>6427.0</v>
+        <v>104.8795</v>
       </c>
       <c r="E22" t="n">
-        <v>6427.0</v>
+        <v>104.8795</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>44000.0</v>
+        <v>582.0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D23" t="n">
-        <v>6427.0</v>
+        <v>109.681</v>
       </c>
       <c r="E23" t="n">
-        <v>6427.0</v>
+        <v>109.681</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>44000.0</v>
+        <v>1051.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D24" t="n">
-        <v>6427.0</v>
+        <v>177.9205</v>
       </c>
       <c r="E24" t="n">
-        <v>6427.0</v>
+        <v>177.9205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>44000.0</v>
+        <v>1178.0</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D25" t="n">
-        <v>6625.0</v>
+        <v>196.399</v>
       </c>
       <c r="E25" t="n">
-        <v>6625.0</v>
+        <v>196.399</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44000.0</v>
+        <v>1456.0</v>
       </c>
       <c r="B26" t="n">
         <v>10.0</v>
       </c>
       <c r="D26" t="n">
-        <v>6625.0</v>
+        <v>243.4</v>
       </c>
       <c r="E26" t="n">
-        <v>6625.0</v>
+        <v>243.4</v>
       </c>
     </row>
   </sheetData>
